--- a/数据表及业务概况.xlsx
+++ b/数据表及业务概况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>数据表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,155 @@
   </si>
   <si>
     <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①维护好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机与其代表数字的对应关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务概述：
+①随机生成一个与【最近一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机对应的数字】不重复的数字，根据该数字获取对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机信息，
+②根据页面选择的消费范围，随机生成对应的消费金额
+②根据生成消费金额、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机对应的费率，获取手续费、实际到账费用
+筛选标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①生成的数字金额，最后一位不能为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +789,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -762,15 +917,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -787,6 +933,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1108,11 +1269,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1214,11 +1375,11 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1328,17 +1489,17 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
@@ -1424,11 +1585,11 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1500,11 +1661,11 @@
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1537,10 +1698,10 @@
       <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="33" customHeight="1">
       <c r="A24" s="2" t="s">
@@ -1564,8 +1725,8 @@
       <c r="G24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="47.25" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1589,8 +1750,8 @@
       <c r="G25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1609,14 +1770,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:L15"/>
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
